--- a/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Results/TOP_comparison_HighestDemandInReachableArea.xlsx
+++ b/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Results/TOP_comparison_HighestDemandInReachableArea.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="274">
   <si>
     <t>`</t>
   </si>
@@ -158,6 +158,681 @@
   </si>
   <si>
     <t>Data Set 7.4</t>
+  </si>
+  <si>
+    <t>Not Given</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>190.0</t>
+  </si>
+  <si>
+    <t>215.0</t>
+  </si>
+  <si>
+    <t>235.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>115.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>260.0</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>390.0</t>
+  </si>
+  <si>
+    <t>440.0</t>
+  </si>
+  <si>
+    <t>470.0</t>
+  </si>
+  <si>
+    <t>590.0</t>
+  </si>
+  <si>
+    <t>620.0</t>
+  </si>
+  <si>
+    <t>660.0</t>
+  </si>
+  <si>
+    <t>680.0</t>
+  </si>
+  <si>
+    <t>710.0</t>
+  </si>
+  <si>
+    <t>750.0</t>
+  </si>
+  <si>
+    <t>780.0</t>
+  </si>
+  <si>
+    <t>800.0</t>
+  </si>
+  <si>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>430.0</t>
+  </si>
+  <si>
+    <t>520.0</t>
+  </si>
+  <si>
+    <t>550.0</t>
+  </si>
+  <si>
+    <t>580.0</t>
+  </si>
+  <si>
+    <t>630.0</t>
+  </si>
+  <si>
+    <t>720.0</t>
+  </si>
+  <si>
+    <t>490.0</t>
+  </si>
+  <si>
+    <t>530.0</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>670.0</t>
+  </si>
+  <si>
+    <t>194.0</t>
+  </si>
+  <si>
+    <t>341.0</t>
+  </si>
+  <si>
+    <t>531.0</t>
+  </si>
+  <si>
+    <t>669.0</t>
+  </si>
+  <si>
+    <t>737.0</t>
+  </si>
+  <si>
+    <t>807.0</t>
+  </si>
+  <si>
+    <t>858.0</t>
+  </si>
+  <si>
+    <t>899.0</t>
+  </si>
+  <si>
+    <t>932.0</t>
+  </si>
+  <si>
+    <t>1003.0</t>
+  </si>
+  <si>
+    <t>1039.0</t>
+  </si>
+  <si>
+    <t>1112.0</t>
+  </si>
+  <si>
+    <t>1147.0</t>
+  </si>
+  <si>
+    <t>1199.0</t>
+  </si>
+  <si>
+    <t>1242.0</t>
+  </si>
+  <si>
+    <t>1286.0</t>
+  </si>
+  <si>
+    <t>1299.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>191.0</t>
+  </si>
+  <si>
+    <t>333.0</t>
+  </si>
+  <si>
+    <t>432.0</t>
+  </si>
+  <si>
+    <t>552.0</t>
+  </si>
+  <si>
+    <t>623.0</t>
+  </si>
+  <si>
+    <t>717.0</t>
+  </si>
+  <si>
+    <t>798.0</t>
+  </si>
+  <si>
+    <t>829.0</t>
+  </si>
+  <si>
+    <t>770.0</t>
+  </si>
+  <si>
+    <t>948.0</t>
+  </si>
+  <si>
+    <t>956.0</t>
+  </si>
+  <si>
+    <t>1018.0</t>
+  </si>
+  <si>
+    <t>1078.0</t>
+  </si>
+  <si>
+    <t>1115.0</t>
+  </si>
+  <si>
+    <t>1222.0</t>
+  </si>
+  <si>
+    <t>1225.0</t>
+  </si>
+  <si>
+    <t>1230.0</t>
+  </si>
+  <si>
+    <t>1285.0</t>
+  </si>
+  <si>
+    <t>304.0</t>
+  </si>
+  <si>
+    <t>460.0</t>
+  </si>
+  <si>
+    <t>545.0</t>
+  </si>
+  <si>
+    <t>641.0</t>
+  </si>
+  <si>
+    <t>697.0</t>
+  </si>
+  <si>
+    <t>847.0</t>
+  </si>
+  <si>
+    <t>895.0</t>
+  </si>
+  <si>
+    <t>995.0</t>
+  </si>
+  <si>
+    <t>996.0</t>
+  </si>
+  <si>
+    <t>1155.0</t>
+  </si>
+  <si>
+    <t>1253.0</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>395.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>790.0</t>
+  </si>
+  <si>
+    <t>855.0</t>
+  </si>
+  <si>
+    <t>920.0</t>
+  </si>
+  <si>
+    <t>1010.0</t>
+  </si>
+  <si>
+    <t>1150.0</t>
+  </si>
+  <si>
+    <t>1195.0</t>
+  </si>
+  <si>
+    <t>1250.0</t>
+  </si>
+  <si>
+    <t>1310.0</t>
+  </si>
+  <si>
+    <t>1380.0</t>
+  </si>
+  <si>
+    <t>1450.0</t>
+  </si>
+  <si>
+    <t>1490.0</t>
+  </si>
+  <si>
+    <t>1544.0</t>
+  </si>
+  <si>
+    <t>1600.0</t>
+  </si>
+  <si>
+    <t>1635.0</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>255.0</t>
+  </si>
+  <si>
+    <t>335.0</t>
+  </si>
+  <si>
+    <t>595.0</t>
+  </si>
+  <si>
+    <t>650.0</t>
+  </si>
+  <si>
+    <t>755.0</t>
+  </si>
+  <si>
+    <t>870.0</t>
+  </si>
+  <si>
+    <t>990.0</t>
+  </si>
+  <si>
+    <t>1060.0</t>
+  </si>
+  <si>
+    <t>1105.0</t>
+  </si>
+  <si>
+    <t>1175.0</t>
+  </si>
+  <si>
+    <t>1330.0</t>
+  </si>
+  <si>
+    <t>1400.0</t>
+  </si>
+  <si>
+    <t>1530.0</t>
+  </si>
+  <si>
+    <t>1570.0</t>
+  </si>
+  <si>
+    <t>340.0</t>
+  </si>
+  <si>
+    <t>495.0</t>
+  </si>
+  <si>
+    <t>675.0</t>
+  </si>
+  <si>
+    <t>860.0</t>
+  </si>
+  <si>
+    <t>950.0</t>
+  </si>
+  <si>
+    <t>1020.0</t>
+  </si>
+  <si>
+    <t>1160.0</t>
+  </si>
+  <si>
+    <t>1260.0</t>
+  </si>
+  <si>
+    <t>1420.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>360.0</t>
+  </si>
+  <si>
+    <t>588.0</t>
+  </si>
+  <si>
+    <t>888.0</t>
+  </si>
+  <si>
+    <t>942.0</t>
+  </si>
+  <si>
+    <t>1032.0</t>
+  </si>
+  <si>
+    <t>1104.0</t>
+  </si>
+  <si>
+    <t>1176.0</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
+    <t>444.0</t>
+  </si>
+  <si>
+    <t>642.0</t>
+  </si>
+  <si>
+    <t>821.0</t>
+  </si>
+  <si>
+    <t>894.0</t>
+  </si>
+  <si>
+    <t>972.0</t>
+  </si>
+  <si>
+    <t>1080.0</t>
+  </si>
+  <si>
+    <t>1158.0</t>
+  </si>
+  <si>
+    <t>366.0</t>
+  </si>
+  <si>
+    <t>546.0</t>
+  </si>
+  <si>
+    <t>690.0</t>
+  </si>
+  <si>
+    <t>912.0</t>
+  </si>
+  <si>
+    <t>1068.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>379.0</t>
+  </si>
+  <si>
+    <t>453.0</t>
+  </si>
+  <si>
+    <t>517.0</t>
+  </si>
+  <si>
+    <t>576.0</t>
+  </si>
+  <si>
+    <t>633.0</t>
+  </si>
+  <si>
+    <t>693.0</t>
+  </si>
+  <si>
+    <t>758.0</t>
+  </si>
+  <si>
+    <t>811.0</t>
+  </si>
+  <si>
+    <t>864.0</t>
+  </si>
+  <si>
+    <t>934.0</t>
+  </si>
+  <si>
+    <t>987.0</t>
+  </si>
+  <si>
+    <t>1031.0</t>
+  </si>
+  <si>
+    <t>1082.0</t>
+  </si>
+  <si>
+    <t>1127.0</t>
+  </si>
+  <si>
+    <t>1173.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>117.0</t>
+  </si>
+  <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>338.0</t>
+  </si>
+  <si>
+    <t>419.0</t>
+  </si>
+  <si>
+    <t>466.0</t>
+  </si>
+  <si>
+    <t>539.0</t>
+  </si>
+  <si>
+    <t>602.0</t>
+  </si>
+  <si>
+    <t>676.0</t>
+  </si>
+  <si>
+    <t>754.0</t>
+  </si>
+  <si>
+    <t>813.0</t>
+  </si>
+  <si>
+    <t>848.0</t>
+  </si>
+  <si>
+    <t>919.0</t>
+  </si>
+  <si>
+    <t>943.0</t>
+  </si>
+  <si>
+    <t>1008.0</t>
+  </si>
+  <si>
+    <t>1064.0</t>
+  </si>
+  <si>
+    <t>1095.0</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>156.0</t>
+  </si>
+  <si>
+    <t>209.0</t>
+  </si>
+  <si>
+    <t>283.0</t>
+  </si>
+  <si>
+    <t>462.0</t>
+  </si>
+  <si>
+    <t>516.0</t>
+  </si>
+  <si>
+    <t>562.0</t>
+  </si>
+  <si>
+    <t>610.0</t>
+  </si>
+  <si>
+    <t>683.0</t>
+  </si>
+  <si>
+    <t>728.0</t>
+  </si>
+  <si>
+    <t>801.0</t>
+  </si>
+  <si>
+    <t>882.0</t>
+  </si>
+  <si>
+    <t>886.0</t>
+  </si>
+  <si>
+    <t>1066.0</t>
   </si>
   <si>
     <t>All Values in %</t>
@@ -1952,8 +2627,8 @@
       <c r="T22" t="s">
         <v>27</v>
       </c>
-      <c r="U22" t="s">
-        <v>27</v>
+      <c r="U22" t="n">
+        <v>38.0</v>
       </c>
       <c r="V22" t="s">
         <v>27</v>
@@ -2068,105 +2743,1680 @@
       <c r="A2" t="s">
         <v>26</v>
       </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>29</v>
       </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>30</v>
       </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>31</v>
       </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>32</v>
       </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>33</v>
       </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" t="s">
+        <v>99</v>
+      </c>
+      <c r="S8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U8" t="s">
+        <v>101</v>
+      </c>
+      <c r="V8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>34</v>
       </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" t="s">
+        <v>108</v>
+      </c>
+      <c r="S9" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" t="s">
+        <v>109</v>
+      </c>
+      <c r="V9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>35</v>
       </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>111</v>
+      </c>
+      <c r="R10" t="s">
+        <v>112</v>
+      </c>
+      <c r="S10" t="s">
+        <v>112</v>
+      </c>
+      <c r="T10" t="s">
+        <v>113</v>
+      </c>
+      <c r="U10" t="s">
+        <v>113</v>
+      </c>
+      <c r="V10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>36</v>
       </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>127</v>
+      </c>
+      <c r="R11" t="s">
+        <v>128</v>
+      </c>
+      <c r="S11" t="s">
+        <v>127</v>
+      </c>
+      <c r="T11" t="s">
+        <v>129</v>
+      </c>
+      <c r="U11" t="s">
+        <v>130</v>
+      </c>
+      <c r="V11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>37</v>
       </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="s">
+        <v>141</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>145</v>
+      </c>
+      <c r="R12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T12" t="s">
+        <v>148</v>
+      </c>
+      <c r="U12" t="s">
+        <v>149</v>
+      </c>
+      <c r="V12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" t="s">
+        <v>48</v>
+      </c>
+      <c r="X12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>38</v>
       </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" t="s">
+        <v>154</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="s">
+        <v>155</v>
+      </c>
+      <c r="N13" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13" t="s">
+        <v>159</v>
+      </c>
+      <c r="S13" t="s">
+        <v>159</v>
+      </c>
+      <c r="T13" t="s">
+        <v>148</v>
+      </c>
+      <c r="U13" t="s">
+        <v>160</v>
+      </c>
+      <c r="V13" t="s">
+        <v>48</v>
+      </c>
+      <c r="W13" t="s">
+        <v>48</v>
+      </c>
+      <c r="X13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>39</v>
       </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" t="s">
+        <v>164</v>
+      </c>
+      <c r="N14" t="s">
+        <v>165</v>
+      </c>
+      <c r="O14" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>168</v>
+      </c>
+      <c r="R14" t="s">
+        <v>169</v>
+      </c>
+      <c r="S14" t="s">
+        <v>170</v>
+      </c>
+      <c r="T14" t="s">
+        <v>171</v>
+      </c>
+      <c r="U14" t="s">
+        <v>172</v>
+      </c>
+      <c r="V14" t="s">
+        <v>173</v>
+      </c>
+      <c r="W14" t="s">
+        <v>174</v>
+      </c>
+      <c r="X14" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>40</v>
       </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" t="s">
+        <v>180</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15" t="s">
+        <v>182</v>
+      </c>
+      <c r="O15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P15" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>185</v>
+      </c>
+      <c r="R15" t="s">
+        <v>186</v>
+      </c>
+      <c r="S15" t="s">
+        <v>187</v>
+      </c>
+      <c r="T15" t="s">
+        <v>188</v>
+      </c>
+      <c r="U15" t="s">
+        <v>170</v>
+      </c>
+      <c r="V15" t="s">
+        <v>189</v>
+      </c>
+      <c r="W15" t="s">
+        <v>190</v>
+      </c>
+      <c r="X15" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>41</v>
       </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>99</v>
+      </c>
+      <c r="R16" t="s">
+        <v>196</v>
+      </c>
+      <c r="S16" t="s">
+        <v>197</v>
+      </c>
+      <c r="T16" t="s">
+        <v>198</v>
+      </c>
+      <c r="U16" t="s">
+        <v>199</v>
+      </c>
+      <c r="V16" t="s">
+        <v>200</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>42</v>
       </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" t="s">
+        <v>207</v>
+      </c>
+      <c r="M17" t="s">
+        <v>208</v>
+      </c>
+      <c r="N17" t="s">
+        <v>209</v>
+      </c>
+      <c r="O17" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>48</v>
+      </c>
+      <c r="R17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17" t="s">
+        <v>48</v>
+      </c>
+      <c r="V17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17" t="s">
+        <v>48</v>
+      </c>
+      <c r="X17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>43</v>
       </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>210</v>
+      </c>
+      <c r="I18" t="s">
+        <v>211</v>
+      </c>
+      <c r="J18" t="s">
+        <v>212</v>
+      </c>
+      <c r="K18" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" t="s">
+        <v>215</v>
+      </c>
+      <c r="N18" t="s">
+        <v>216</v>
+      </c>
+      <c r="O18" t="s">
+        <v>217</v>
+      </c>
+      <c r="P18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>48</v>
+      </c>
+      <c r="R18" t="s">
+        <v>48</v>
+      </c>
+      <c r="S18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" t="s">
+        <v>48</v>
+      </c>
+      <c r="U18" t="s">
+        <v>48</v>
+      </c>
+      <c r="V18" t="s">
+        <v>48</v>
+      </c>
+      <c r="W18" t="s">
+        <v>48</v>
+      </c>
+      <c r="X18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>44</v>
       </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L19" t="s">
+        <v>219</v>
+      </c>
+      <c r="M19" t="s">
+        <v>220</v>
+      </c>
+      <c r="N19" t="s">
+        <v>221</v>
+      </c>
+      <c r="O19" t="s">
+        <v>222</v>
+      </c>
+      <c r="P19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19" t="s">
+        <v>48</v>
+      </c>
+      <c r="T19" t="s">
+        <v>48</v>
+      </c>
+      <c r="U19" t="s">
+        <v>48</v>
+      </c>
+      <c r="V19" t="s">
+        <v>48</v>
+      </c>
+      <c r="W19" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>45</v>
       </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H20" t="s">
+        <v>227</v>
+      </c>
+      <c r="I20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J20" t="s">
+        <v>229</v>
+      </c>
+      <c r="K20" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" t="s">
+        <v>231</v>
+      </c>
+      <c r="M20" t="s">
+        <v>232</v>
+      </c>
+      <c r="N20" t="s">
+        <v>233</v>
+      </c>
+      <c r="O20" t="s">
+        <v>234</v>
+      </c>
+      <c r="P20" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>236</v>
+      </c>
+      <c r="R20" t="s">
+        <v>237</v>
+      </c>
+      <c r="S20" t="s">
+        <v>238</v>
+      </c>
+      <c r="T20" t="s">
+        <v>239</v>
+      </c>
+      <c r="U20" t="s">
+        <v>240</v>
+      </c>
+      <c r="V20" t="s">
+        <v>48</v>
+      </c>
+      <c r="W20" t="s">
+        <v>48</v>
+      </c>
+      <c r="X20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>46</v>
       </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>245</v>
+      </c>
+      <c r="I21" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" t="s">
+        <v>247</v>
+      </c>
+      <c r="K21" t="s">
+        <v>248</v>
+      </c>
+      <c r="L21" t="s">
+        <v>249</v>
+      </c>
+      <c r="M21" t="s">
+        <v>250</v>
+      </c>
+      <c r="N21" t="s">
+        <v>251</v>
+      </c>
+      <c r="O21" t="s">
+        <v>252</v>
+      </c>
+      <c r="P21" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>254</v>
+      </c>
+      <c r="R21" t="s">
+        <v>255</v>
+      </c>
+      <c r="S21" t="s">
+        <v>256</v>
+      </c>
+      <c r="T21" t="s">
+        <v>257</v>
+      </c>
+      <c r="U21" t="s">
+        <v>258</v>
+      </c>
+      <c r="V21" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" t="s">
+        <v>48</v>
+      </c>
+      <c r="X21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" t="s">
+        <v>260</v>
+      </c>
+      <c r="H22" t="s">
+        <v>261</v>
+      </c>
+      <c r="I22" t="s">
+        <v>262</v>
+      </c>
+      <c r="J22" t="s">
+        <v>245</v>
+      </c>
+      <c r="K22" t="s">
+        <v>263</v>
+      </c>
+      <c r="L22" t="s">
+        <v>264</v>
+      </c>
+      <c r="M22" t="s">
+        <v>265</v>
+      </c>
+      <c r="N22" t="s">
+        <v>266</v>
+      </c>
+      <c r="O22" t="s">
+        <v>267</v>
+      </c>
+      <c r="P22" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>269</v>
+      </c>
+      <c r="R22" t="s">
+        <v>270</v>
+      </c>
+      <c r="S22" t="s">
+        <v>271</v>
+      </c>
+      <c r="T22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U22" t="s">
+        <v>272</v>
+      </c>
+      <c r="V22" t="s">
+        <v>48</v>
+      </c>
+      <c r="W22" t="s">
+        <v>48</v>
+      </c>
+      <c r="X22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +4434,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>

--- a/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Results/TOP_comparison_HighestDemandInReachableArea.xlsx
+++ b/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Results/TOP_comparison_HighestDemandInReachableArea.xlsx
@@ -970,8 +970,8 @@
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
+      <c r="B2" t="n">
+        <v>38.0</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1859,8 +1859,8 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
-        <v>27</v>
+      <c r="E13" t="n">
+        <v>38.0</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
